--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rd5c9c5e0cc724a40"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Re38a99795f8d42b9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R87b903d2117541fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rb0a52ecd65c14e4f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R20f37d8df32c4cc3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Ra1c5617a02c64ab3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rb0a52ecd65c14e4f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R20f37d8df32c4cc3"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Ra1c5617a02c64ab3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R7964a122990f4f0d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R3ee96145b86e437d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R09df91e20c564d89"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R7964a122990f4f0d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R3ee96145b86e437d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R09df91e20c564d89"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R3d65bcff3855465f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rd3972efef0124e56"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Ra23ff33ef24345a8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R3d65bcff3855465f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rd3972efef0124e56"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Ra23ff33ef24345a8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R62486e19873f476b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R5aa7427dd56a4a9b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R98c8dd2eabab4530"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R62486e19873f476b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R5aa7427dd56a4a9b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R98c8dd2eabab4530"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R07c8cc2a63c04cd2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rc48675d92e5f4418"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R86d10b4e34544090"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R07c8cc2a63c04cd2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rc48675d92e5f4418"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R86d10b4e34544090"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R5917db6ab9a94ac4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R302891192ab4453e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rc474afae6cc8483c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R5917db6ab9a94ac4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R302891192ab4453e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rc474afae6cc8483c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rcd5d44c8ca3b4fc9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rfaf89c9c7f9d44be"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R95d1b6fa6ede4f31"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rcd5d44c8ca3b4fc9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rfaf89c9c7f9d44be"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R95d1b6fa6ede4f31"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R597c80202408474c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R2226a26085fb4104"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R461a9e86ac264465"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R597c80202408474c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R2226a26085fb4104"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R461a9e86ac264465"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R5683964e4326489b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R9f1472cda322454b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rac51fe8ecb3e4aec"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R5683964e4326489b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R9f1472cda322454b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rac51fe8ecb3e4aec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rd1769589b1994143"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R18bf8135a4c84b6a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rc40d32c78fb34507"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rd1769589b1994143"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R18bf8135a4c84b6a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rc40d32c78fb34507"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R0ae5117f85bd4546"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rbe0539122ec64894"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R2523461056004c09"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -32,18 +32,18 @@
       <x:b/>
       <x:sz val="16"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R0ae5117f85bd4546"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rbe0539122ec64894"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R2523461056004c09"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R896ace52f13f4beb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rdbc09d501b244e24"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rd26edfb201fd4732"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -32,18 +32,18 @@
       <x:b/>
       <x:sz val="16"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/048_SheetVisibility.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="R896ace52f13f4beb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="Rdbc09d501b244e24"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="Rd26edfb201fd4732"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Report" sheetId="1" r:id="Rde68f6687ed7422e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="2" state="hidden" r:id="R81110e87782d4d7b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="3" state="hidden" r:id="R900beeb4f35b47d9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
